--- a/nuno-dataset/test-oxigen-01/content/results/metrics_2_5.xlsx
+++ b/nuno-dataset/test-oxigen-01/content/results/metrics_2_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,342 +478,342 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_1</t>
+          <t>model_2_5_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7979960968685236</v>
+        <v>0.85251841622735</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8684720061359402</v>
+        <v>0.7579013496919393</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5449037770314075</v>
+        <v>0.9158305375510991</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8228471920865641</v>
+        <v>0.8422238908847012</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2235587984323502</v>
+        <v>0.1632186621427536</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3642227947711945</v>
+        <v>0.2474200129508972</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2736379504203796</v>
+        <v>0.1003445982933044</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3215932846069336</v>
+        <v>0.1782080680131912</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_0</t>
+          <t>model_2_5_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8254803218148783</v>
+        <v>0.85251841622735</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9587779090208852</v>
+        <v>0.7579013496919393</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6382543187136938</v>
+        <v>0.9158305375510991</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9103254001964634</v>
+        <v>0.8422238908847012</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1931418627500534</v>
+        <v>0.1632186621427536</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1141507923603058</v>
+        <v>0.2474200129508972</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2175086140632629</v>
+        <v>0.1003445982933044</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1627902388572693</v>
+        <v>0.1782080680131912</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_14</t>
+          <t>model_2_5_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9138367235344169</v>
+        <v>0.85251841622735</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9409307298351647</v>
+        <v>0.7579013496919393</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6561228819517427</v>
+        <v>0.9158305375510991</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8986978252419603</v>
+        <v>0.8422238908847012</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09535735100507736</v>
+        <v>0.1632186621427536</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1635726094245911</v>
+        <v>0.2474200129508972</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2067646980285645</v>
+        <v>0.1003445982933044</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1838982999324799</v>
+        <v>0.1782080680131912</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_13</t>
+          <t>model_2_5_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9138496703909817</v>
+        <v>0.85251841622735</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9409499332677038</v>
+        <v>0.7579013496919393</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6562805002082592</v>
+        <v>0.9158305375510991</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8987379152010848</v>
+        <v>0.8422238908847012</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09534303098917007</v>
+        <v>0.1632186621427536</v>
       </c>
       <c r="G5" t="n">
-        <v>0.163519412279129</v>
+        <v>0.2474200129508972</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2066699266433716</v>
+        <v>0.1003445982933044</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1838255077600479</v>
+        <v>0.1782080680131912</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_15</t>
+          <t>model_2_5_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.913867044176973</v>
+        <v>0.85251841622735</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9408469593683194</v>
+        <v>0.7579013496919393</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6569215104409516</v>
+        <v>0.9158305375510991</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8987550474821475</v>
+        <v>0.8422238908847012</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09532380104064941</v>
+        <v>0.1632186621427536</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1638045608997345</v>
+        <v>0.2474200129508972</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2062844932079315</v>
+        <v>0.1003445982933044</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1837944090366364</v>
+        <v>0.1782080680131912</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_21</t>
+          <t>model_2_5_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9139439769027257</v>
+        <v>0.85251841622735</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9412016057719186</v>
+        <v>0.7579013496919393</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6560449759365612</v>
+        <v>0.9158305375510991</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8989045090615084</v>
+        <v>0.8422238908847012</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09523864835500717</v>
+        <v>0.1632186621427536</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1628224849700928</v>
+        <v>0.2474200129508972</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2068115472793579</v>
+        <v>0.1003445982933044</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1835230886936188</v>
+        <v>0.1782080680131912</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_20</t>
+          <t>model_2_5_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9139439769027257</v>
+        <v>0.85251841622735</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9412016057719186</v>
+        <v>0.7579013496919393</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6560449759365612</v>
+        <v>0.9158305375510991</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8989045090615084</v>
+        <v>0.8422238908847012</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09523864835500717</v>
+        <v>0.1632186621427536</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1628224849700928</v>
+        <v>0.2474200129508972</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2068115472793579</v>
+        <v>0.1003445982933044</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1835230886936188</v>
+        <v>0.1782080680131912</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_19</t>
+          <t>model_2_5_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9139439769027257</v>
+        <v>0.85251841622735</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9412016057719186</v>
+        <v>0.7579013496919393</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6560449759365612</v>
+        <v>0.9158305375510991</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8989045090615084</v>
+        <v>0.8422238908847012</v>
       </c>
       <c r="F9" t="n">
-        <v>0.09523864835500717</v>
+        <v>0.1632186621427536</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1628224849700928</v>
+        <v>0.2474200129508972</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2068115472793579</v>
+        <v>0.1003445982933044</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1835230886936188</v>
+        <v>0.1782080680131912</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_18</t>
+          <t>model_2_5_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9139439769027257</v>
+        <v>0.85251841622735</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9412016057719186</v>
+        <v>0.7579013496919393</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6560449759365612</v>
+        <v>0.9158305375510991</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8989045090615084</v>
+        <v>0.8422238908847012</v>
       </c>
       <c r="F10" t="n">
-        <v>0.09523864835500717</v>
+        <v>0.1632186621427536</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1628224849700928</v>
+        <v>0.2474200129508972</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2068115472793579</v>
+        <v>0.1003445982933044</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1835230886936188</v>
+        <v>0.1782080680131912</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_17</t>
+          <t>model_2_5_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9139439769027257</v>
+        <v>0.85251841622735</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9412016057719186</v>
+        <v>0.7579013496919393</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6560449759365612</v>
+        <v>0.9158305375510991</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8989045090615084</v>
+        <v>0.8422238908847012</v>
       </c>
       <c r="F11" t="n">
-        <v>0.09523864835500717</v>
+        <v>0.1632186621427536</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1628224849700928</v>
+        <v>0.2474200129508972</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2068115472793579</v>
+        <v>0.1003445982933044</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1835230886936188</v>
+        <v>0.1782080680131912</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_16</t>
+          <t>model_2_5_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9139439769027257</v>
+        <v>0.85251841622735</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9412016057719186</v>
+        <v>0.7579013496919393</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6560449759365612</v>
+        <v>0.9158305375510991</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8989045090615084</v>
+        <v>0.8422238908847012</v>
       </c>
       <c r="F12" t="n">
-        <v>0.09523864835500717</v>
+        <v>0.1632186621427536</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1628224849700928</v>
+        <v>0.2474200129508972</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2068115472793579</v>
+        <v>0.1003445982933044</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1835230886936188</v>
+        <v>0.1782080680131912</v>
       </c>
     </row>
     <row r="13">
@@ -823,307 +823,307 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9139439769027257</v>
+        <v>0.85251841622735</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9412016057719186</v>
+        <v>0.7579013496919393</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6560449759365612</v>
+        <v>0.9158305375510991</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8989045090615084</v>
+        <v>0.8422238908847012</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09523864835500717</v>
+        <v>0.1632186621427536</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1628224849700928</v>
+        <v>0.2474200129508972</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2068115472793579</v>
+        <v>0.1003445982933044</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1835230886936188</v>
+        <v>0.1782080680131912</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_22</t>
+          <t>model_2_5_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9139439769027257</v>
+        <v>0.85251841622735</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9412016057719186</v>
+        <v>0.7579013496919393</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6560449759365612</v>
+        <v>0.9158305375510991</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8989045090615084</v>
+        <v>0.8422238908847012</v>
       </c>
       <c r="F14" t="n">
-        <v>0.09523864835500717</v>
+        <v>0.1632186621427536</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1628224849700928</v>
+        <v>0.2474200129508972</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2068115472793579</v>
+        <v>0.1003445982933044</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1835230886936188</v>
+        <v>0.1782080680131912</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_12</t>
+          <t>model_2_5_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.914002265670722</v>
+        <v>0.85251841622735</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9410414183657621</v>
+        <v>0.7579013496919393</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6578515928033405</v>
+        <v>0.9158305375510991</v>
       </c>
       <c r="E15" t="n">
-        <v>0.899056603606994</v>
+        <v>0.8422238908847012</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0951741486787796</v>
+        <v>0.1632186621427536</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1632660776376724</v>
+        <v>0.2474200129508972</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2057252675294876</v>
+        <v>0.1003445982933044</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1832469701766968</v>
+        <v>0.1782080680131912</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_10</t>
+          <t>model_2_5_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9140293207062919</v>
+        <v>0.85251841622735</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9412203116674329</v>
+        <v>0.7579013496919393</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6574102443759919</v>
+        <v>0.9158305375510991</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8991318807113053</v>
+        <v>0.8422238908847012</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09514420479536057</v>
+        <v>0.1632186621427536</v>
       </c>
       <c r="G16" t="n">
-        <v>0.162770688533783</v>
+        <v>0.2474200129508972</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2059906423091888</v>
+        <v>0.1003445982933044</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1831103265285492</v>
+        <v>0.1782080680131912</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_11</t>
+          <t>model_2_5_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9140348166219785</v>
+        <v>0.85251841622735</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9412648624706237</v>
+        <v>0.7579013496919393</v>
       </c>
       <c r="D17" t="n">
-        <v>0.657163781148362</v>
+        <v>0.9158305375510991</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8991304376460898</v>
+        <v>0.8422238908847012</v>
       </c>
       <c r="F17" t="n">
-        <v>0.09513812512159348</v>
+        <v>0.1632186621427536</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1626473218202591</v>
+        <v>0.2474200129508972</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2061388194561005</v>
+        <v>0.1003445982933044</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1831129640340805</v>
+        <v>0.1782080680131912</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_9</t>
+          <t>model_2_5_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9140408938538802</v>
+        <v>0.85251841622735</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9410800244343626</v>
+        <v>0.7579013496919393</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6583536693652462</v>
+        <v>0.9158305375510991</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8991666703049377</v>
+        <v>0.8422238908847012</v>
       </c>
       <c r="F18" t="n">
-        <v>0.09513139724731445</v>
+        <v>0.1632186621427536</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1631591767072678</v>
+        <v>0.2474200129508972</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2054233849048615</v>
+        <v>0.1003445982933044</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1830471754074097</v>
+        <v>0.1782080680131912</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_8</t>
+          <t>model_2_5_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9141238594610159</v>
+        <v>0.85251841622735</v>
       </c>
       <c r="C19" t="n">
-        <v>0.940721125521826</v>
+        <v>0.7579013496919393</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6615027467341523</v>
+        <v>0.9158305375510991</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8993670083358671</v>
+        <v>0.8422238908847012</v>
       </c>
       <c r="F19" t="n">
-        <v>0.09503958374261856</v>
+        <v>0.1632186621427536</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1641530245542526</v>
+        <v>0.2474200129508972</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2035299241542816</v>
+        <v>0.1003445982933044</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1826834827661514</v>
+        <v>0.1782080680131912</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_7</t>
+          <t>model_2_5_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9154137719187098</v>
+        <v>0.85251841622735</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9444302605361991</v>
+        <v>0.7579013496919393</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6597102161660851</v>
+        <v>0.9158305375510991</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9020824650405906</v>
+        <v>0.8422238908847012</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09361202269792557</v>
+        <v>0.1632186621427536</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1538818180561066</v>
+        <v>0.2474200129508972</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2046077251434326</v>
+        <v>0.1003445982933044</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1777540147304535</v>
+        <v>0.1782080680131912</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_6</t>
+          <t>model_2_5_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9158683079371387</v>
+        <v>0.85251841622735</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9438572354259731</v>
+        <v>0.7579013496919393</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6700930580763864</v>
+        <v>0.9158305375510991</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9032386444709889</v>
+        <v>0.8422238908847012</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09310899674892426</v>
+        <v>0.1632186621427536</v>
       </c>
       <c r="G21" t="n">
-        <v>0.155468612909317</v>
+        <v>0.2474200129508972</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1983647793531418</v>
+        <v>0.1003445982933044</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1756551414728165</v>
+        <v>0.1782080680131912</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_5</t>
+          <t>model_2_5_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9160251551911972</v>
+        <v>0.85251841622735</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9459297399970857</v>
+        <v>0.7579013496919393</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6626435703732667</v>
+        <v>0.9158305375510991</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9037508212287175</v>
+        <v>0.8422238908847012</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09293540567159653</v>
+        <v>0.1632186621427536</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1497295051813126</v>
+        <v>0.2474200129508972</v>
       </c>
       <c r="H22" t="n">
-        <v>0.202843964099884</v>
+        <v>0.1003445982933044</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1747253686189651</v>
+        <v>0.1782080680131912</v>
       </c>
     </row>
     <row r="23">
@@ -1133,90 +1133,121 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9164754865391748</v>
+        <v>0.85251841622735</v>
       </c>
       <c r="C23" t="n">
-        <v>0.950866294585811</v>
+        <v>0.7579013496919393</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6544682852795345</v>
+        <v>0.9158305375510991</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9064647776156036</v>
+        <v>0.8422238908847012</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0924370288848877</v>
+        <v>0.1632186621427536</v>
       </c>
       <c r="G23" t="n">
-        <v>0.136059358716011</v>
+        <v>0.2474200129508972</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2077595740556717</v>
+        <v>0.1003445982933044</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1697986125946045</v>
+        <v>0.1782080680131912</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_4</t>
+          <t>model_2_5_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.917010403569795</v>
+        <v>0.85251841622735</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9473672533221226</v>
+        <v>0.7579013496919393</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6693385086738853</v>
+        <v>0.9158305375510991</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9059556763101366</v>
+        <v>0.8422238908847012</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09184503555297852</v>
+        <v>0.1632186621427536</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1457487940788269</v>
+        <v>0.2474200129508972</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1988184750080109</v>
+        <v>0.1003445982933044</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1707227975130081</v>
+        <v>0.1782080680131912</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_3</t>
+          <t>model_2_5_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9172611677018541</v>
+        <v>0.85251841622735</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9496089426585007</v>
+        <v>0.7579013496919393</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6653614887027546</v>
+        <v>0.9158305375510991</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9071452851530004</v>
+        <v>0.8422238908847012</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0915675088763237</v>
+        <v>0.1632186621427536</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1395411789417267</v>
+        <v>0.2474200129508972</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2012097537517548</v>
+        <v>0.1003445982933044</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1685632467269897</v>
+        <v>0.1782080680131912</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>model_2_5_24</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.85251841622735</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7579013496919393</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9158305375510991</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.8422238908847012</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.1632186621427536</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.2474200129508972</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.1003445982933044</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.1782080680131912</v>
       </c>
     </row>
   </sheetData>
